--- a/KateDB/kateDBStructure.xlsx
+++ b/KateDB/kateDBStructure.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26230"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nianbao/Desktop/XMind/KateDB/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="12555" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="植物名稱" sheetId="1" r:id="rId1"/>
     <sheet name="植物類型" sheetId="2" r:id="rId2"/>
     <sheet name="商品大項" sheetId="3" r:id="rId3"/>
-    <sheet name="商品小項" sheetId="4" r:id="rId4"/>
-    <sheet name="加購" sheetId="5" r:id="rId5"/>
-    <sheet name="分類" sheetId="6" r:id="rId6"/>
-    <sheet name="照片庫" sheetId="7" r:id="rId7"/>
+    <sheet name="商品小項" sheetId="8" r:id="rId4"/>
+    <sheet name="商品小項商品" sheetId="4" r:id="rId5"/>
+    <sheet name="加購" sheetId="5" r:id="rId6"/>
+    <sheet name="分類" sheetId="6" r:id="rId7"/>
+    <sheet name="照片庫" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t xml:space="preserve"> petbigltemid ( 寵物大項 _ID )</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +62,6 @@
   </si>
   <si>
     <t>projuctbigltemid ( 商品大項 _ID )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name ( 商品小項名稱 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -118,12 +125,96 @@
     <t>AAAAAAAA,sadsadasdasdasdadad,AAAAAAAA,DDDDDDDDD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ordercode ( 商品編號 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節慶花禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年節花禮</t>
+  </si>
+  <si>
+    <t>聖誕花禮</t>
+  </si>
+  <si>
+    <t>情人節推薦</t>
+  </si>
+  <si>
+    <t>宅好禮</t>
+  </si>
+  <si>
+    <t>買花</t>
+  </si>
+  <si>
+    <t>好禮宅到府</t>
+  </si>
+  <si>
+    <t>name ( 商品小項名稱 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projuctsmallltemid ( 商品小項 _ID )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花束</t>
+  </si>
+  <si>
+    <t>時尚盆花</t>
+  </si>
+  <si>
+    <t>蘭花</t>
+  </si>
+  <si>
+    <t>高架花籃</t>
+  </si>
+  <si>
+    <t>桌上型盆栽</t>
+  </si>
+  <si>
+    <t>立地盆栽80~150cm</t>
+  </si>
+  <si>
+    <t>落地盆栽150~180cm</t>
+  </si>
+  <si>
+    <t>水果&amp;酒禮籃</t>
+  </si>
+  <si>
+    <t>多肉組盆</t>
+  </si>
+  <si>
+    <t>懶人水苔球</t>
+  </si>
+  <si>
+    <t>小自然生態缸</t>
+  </si>
+  <si>
+    <t>人造花設計</t>
+  </si>
+  <si>
+    <t>金莎花束</t>
+  </si>
+  <si>
+    <t>幸運竹</t>
+  </si>
+  <si>
+    <t>新娘捧花&amp;胸花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾燥花&amp;不凋花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +229,29 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +284,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -229,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,16 +608,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -499,34 +632,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="37.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -538,21 +671,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -563,57 +711,145 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="41.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -624,36 +860,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.15">
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -665,33 +945,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="75.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="50" x14ac:dyDescent="0.15">
+      <c r="C2" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -702,36 +981,75 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/KateDB/kateDBStructure.xlsx
+++ b/KateDB/kateDBStructure.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26230"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nianbao/Desktop/XMind/KateDB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8415" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="植物名稱" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t xml:space="preserve"> petbigltemid ( 寵物大項 _ID )</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,152 +56,339 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>narrate ( 敘述 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money ( 價位 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint ( 小提示 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic ( 商品照片 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class ( 分組代號 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addabit ( 加購待號 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hub ( 群 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title ( 標題 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort ( 排序 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time ( 上傳時間 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictype ( 照片類型 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picpath ( 照片路徑 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordercode ( 商品編號 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節慶花禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年節花禮</t>
+  </si>
+  <si>
+    <t>聖誕花禮</t>
+  </si>
+  <si>
+    <t>情人節推薦</t>
+  </si>
+  <si>
+    <t>宅好禮</t>
+  </si>
+  <si>
+    <t>買花</t>
+  </si>
+  <si>
+    <t>好禮宅到府</t>
+  </si>
+  <si>
+    <t>name ( 商品小項名稱 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花束</t>
+  </si>
+  <si>
+    <t>時尚盆花</t>
+  </si>
+  <si>
+    <t>蘭花</t>
+  </si>
+  <si>
+    <t>高架花籃</t>
+  </si>
+  <si>
+    <t>桌上型盆栽</t>
+  </si>
+  <si>
+    <t>立地盆栽80~150cm</t>
+  </si>
+  <si>
+    <t>落地盆栽150~180cm</t>
+  </si>
+  <si>
+    <t>水果&amp;酒禮籃</t>
+  </si>
+  <si>
+    <t>多肉組盆</t>
+  </si>
+  <si>
+    <t>懶人水苔球</t>
+  </si>
+  <si>
+    <t>小自然生態缸</t>
+  </si>
+  <si>
+    <t>人造花設計</t>
+  </si>
+  <si>
+    <t>金莎花束</t>
+  </si>
+  <si>
+    <t>幸運竹</t>
+  </si>
+  <si>
+    <t>新娘捧花&amp;胸花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾燥花&amp;不凋花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id ( 商品大項_ID )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e7f302eb75b5b11ba1a45</t>
+  </si>
+  <si>
+    <t>5a9e7f302eb75b5b11ba1a47</t>
+  </si>
+  <si>
+    <t>5a9e7f302eb75b5b11ba1a49</t>
+  </si>
+  <si>
     <t>projuctbigltemid ( 商品大項 _ID )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>narrate ( 敘述 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money ( 價位 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hint ( 小提示 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pic ( 商品照片 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class ( 分組代號 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addabit ( 加購待號 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hub ( 群 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title ( 標題 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head ( 商品頭 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort ( 排序 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time ( 上傳時間 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pictype ( 照片類型 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picpath ( 照片路徑 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAAAAAAA,sadsadasdasdasdadad|
-AAAAAAAA,sadsadasdasdasdadad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAAAAAAA,sadsadasdasdasdadad,AAAAAAAA,DDDDDDDDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordercode ( 商品編號 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>節慶花禮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年節花禮</t>
-  </si>
-  <si>
-    <t>聖誕花禮</t>
-  </si>
-  <si>
-    <t>情人節推薦</t>
-  </si>
-  <si>
-    <t>宅好禮</t>
-  </si>
-  <si>
-    <t>買花</t>
-  </si>
-  <si>
-    <t>好禮宅到府</t>
-  </si>
-  <si>
-    <t>name ( 商品小項名稱 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>projuctsmallltemid ( 商品小項 _ID )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花束</t>
-  </si>
-  <si>
-    <t>時尚盆花</t>
-  </si>
-  <si>
-    <t>蘭花</t>
-  </si>
-  <si>
-    <t>高架花籃</t>
-  </si>
-  <si>
-    <t>桌上型盆栽</t>
-  </si>
-  <si>
-    <t>立地盆栽80~150cm</t>
-  </si>
-  <si>
-    <t>落地盆栽150~180cm</t>
-  </si>
-  <si>
-    <t>水果&amp;酒禮籃</t>
-  </si>
-  <si>
-    <t>多肉組盆</t>
-  </si>
-  <si>
-    <t>懶人水苔球</t>
-  </si>
-  <si>
-    <t>小自然生態缸</t>
-  </si>
-  <si>
-    <t>人造花設計</t>
-  </si>
-  <si>
-    <t>金莎花束</t>
-  </si>
-  <si>
-    <t>幸運竹</t>
-  </si>
-  <si>
-    <t>新娘捧花&amp;胸花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾燥花&amp;不凋花</t>
+    <t>5a9e829e2eb75b5b11ba234f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進口牡丹菊/花期長|et|適用於室內照顧/喬遷/榮升/賀壽|et|花禮附照顧小冊,照顧很簡單|et|可客製化服務,最滿意的祝福</t>
+  </si>
+  <si>
+    <t>http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/1.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title ( 商品名稱 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜丹菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶蘭5株(特大)</t>
+  </si>
+  <si>
+    <t>優質蘭花/朵數多/花期長|et|適用於室內照顧/喬遷/榮升/賀壽|et|花禮附照顧小冊,照顧很簡單|et|可客製化服務,最滿意的祝福</t>
+  </si>
+  <si>
+    <t>長壽花/葉杜丹/多肉植物</t>
+  </si>
+  <si>
+    <t>優質蘭花3株設計</t>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/2/65017001.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/2/65017001.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/2/6501231005.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/2/6501231005.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/20150129.jpg</t>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/20150129.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長壽花/龍眼炭</t>
+  </si>
+  <si>
+    <t>浪漫/文青/氣質/設計花圈</t>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/2/65011523.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/2/65011523.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img.pcstore.com.tw/~prod/M27663568_big.jpg?pimg=static&amp;P=1484132680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://img.pcstore.com.tw/~prod/M27663568_big.jpg?pimg=static&amp;P=1484132680|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1111111112</t>
+  </si>
+  <si>
+    <t>PD1111111113</t>
+  </si>
+  <si>
+    <t>PD1111111114</t>
+  </si>
+  <si>
+    <t>PD1111111115</t>
+  </si>
+  <si>
+    <t>PD1111111116</t>
+  </si>
+  <si>
+    <t>date ( 上架日期 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buycount ( 購買數量 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a532eb75b5b11ba379e</t>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a9</t>
+  </si>
+  <si>
+    <t>head ( 商品 _ID )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
+  </si>
+  <si>
+    <t>5a9e8a532eb75b5b11ba379e,5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
+  </si>
+  <si>
+    <t>5a9e8a532eb75b5b11ba379e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e90b92eb75b5b11ba48c0</t>
+  </si>
+  <si>
+    <t>5a9e90b92eb75b5b11ba48c2</t>
+  </si>
+  <si>
+    <t>5a9e90b02eb75b5b11ba489c</t>
+  </si>
+  <si>
+    <t>5a9e90b02eb75b5b11ba489e</t>
+  </si>
+  <si>
+    <t>杜丹菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/12/10:13:55.231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pd/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品 ( 0 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部落格 ( 1 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 ( 2 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞 ( 3 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,14 +426,82 @@
       <name val="Menlo"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF222222"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,14 +545,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,13 +900,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="29.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -632,21 +921,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="30.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,36 +960,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="36.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -711,145 +1013,189 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="41.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="29.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="3"/>
+    <col min="5" max="5" width="36.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -860,80 +1206,241 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="34.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="171.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.15">
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+      <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19" x14ac:dyDescent="0.15">
-      <c r="B5" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="H9" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -943,35 +1450,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="75.6640625" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="75.625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="75.6640625" style="3"/>
+    <col min="1" max="1" width="36.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="74.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="75.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="50" x14ac:dyDescent="0.15">
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60.75">
+      <c r="A2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="102">
+      <c r="A3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="17"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -981,36 +1505,52 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="75.625" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="36.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="74.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="75.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40.5">
+      <c r="A2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="76.5">
+      <c r="A3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="17"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1020,40 +1560,95 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="22.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="18">
+        <v>25</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KateDB/kateDBStructure.xlsx
+++ b/KateDB/kateDBStructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8415" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8415" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="植物名稱" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="加購" sheetId="5" r:id="rId6"/>
     <sheet name="分類" sheetId="6" r:id="rId7"/>
     <sheet name="照片庫" sheetId="7" r:id="rId8"/>
+    <sheet name="直播" sheetId="9" r:id="rId9"/>
+    <sheet name="app通知" sheetId="10" r:id="rId10"/>
+    <sheet name="root" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="140">
   <si>
     <t xml:space="preserve"> petbigltemid ( 寵物大項 _ID )</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,64 +227,329 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蝴蝶蘭5株(特大)</t>
+  </si>
+  <si>
+    <t>優質蘭花/朵數多/花期長|et|適用於室內照顧/喬遷/榮升/賀壽|et|花禮附照顧小冊,照顧很簡單|et|可客製化服務,最滿意的祝福</t>
+  </si>
+  <si>
+    <t>優質蘭花3株設計</t>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/2/65017001.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/2/65017001.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/2/6501231005.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/2/6501231005.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/20150129.jpg</t>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/20150129.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長壽花/龍眼炭</t>
+  </si>
+  <si>
+    <t>浪漫/文青/氣質/設計花圈</t>
+  </si>
+  <si>
+    <t>http://www.flowerdiy.url.tw/2/65011523.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://www.flowerdiy.url.tw/2/65011523.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://img.pcstore.com.tw/~prod/M27663568_big.jpg?pimg=static&amp;P=1484132680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敘述1,http://img.pcstore.com.tw/~prod/M27663568_big.jpg?pimg=static&amp;P=1484132680|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1111111112</t>
+  </si>
+  <si>
+    <t>PD1111111113</t>
+  </si>
+  <si>
+    <t>PD1111111114</t>
+  </si>
+  <si>
+    <t>PD1111111115</t>
+  </si>
+  <si>
+    <t>PD1111111116</t>
+  </si>
+  <si>
+    <t>date ( 上架日期 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buycount ( 購買數量 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a532eb75b5b11ba379e</t>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a9</t>
+  </si>
+  <si>
+    <t>head ( 商品 _ID )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
+  </si>
+  <si>
+    <t>5a9e8a532eb75b5b11ba379e,5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
+  </si>
+  <si>
+    <t>5a9e8a532eb75b5b11ba379e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e8a542eb75b5b11ba37a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5a9e90b92eb75b5b11ba48c0</t>
+  </si>
+  <si>
+    <t>5a9e90b92eb75b5b11ba48c2</t>
+  </si>
+  <si>
+    <t>5a9e90b02eb75b5b11ba489c</t>
+  </si>
+  <si>
+    <t>5a9e90b02eb75b5b11ba489e</t>
+  </si>
+  <si>
     <t>杜丹菊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蝴蝶蘭5株(特大)</t>
-  </si>
-  <si>
-    <t>優質蘭花/朵數多/花期長|et|適用於室內照顧/喬遷/榮升/賀壽|et|花禮附照顧小冊,照顧很簡單|et|可客製化服務,最滿意的祝福</t>
-  </si>
-  <si>
-    <t>長壽花/葉杜丹/多肉植物</t>
-  </si>
-  <si>
-    <t>優質蘭花3株設計</t>
-  </si>
-  <si>
-    <t>http://www.flowerdiy.url.tw/2/65017001.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敘述1,http://www.flowerdiy.url.tw/2/65017001.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.flowerdiy.url.tw/2/6501231005.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敘述1,http://www.flowerdiy.url.tw/2/6501231005.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.flowerdiy.url.tw/20150129.jpg</t>
-  </si>
-  <si>
-    <t>敘述1,http://www.flowerdiy.url.tw/20150129.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長壽花/龍眼炭</t>
-  </si>
-  <si>
-    <t>浪漫/文青/氣質/設計花圈</t>
-  </si>
-  <si>
-    <t>http://www.flowerdiy.url.tw/2/65011523.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敘述1,http://www.flowerdiy.url.tw/2/65011523.jpg|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img.pcstore.com.tw/~prod/M27663568_big.jpg?pimg=static&amp;P=1484132680</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敘述1,http://img.pcstore.com.tw/~prod/M27663568_big.jpg?pimg=static&amp;P=1484132680|et|敘述2,http://140.138.155.155:16888/projects/20180121MKFlower/KateDBpic/A/A1/1/2.jpg</t>
+    <t>2017/12/10:13:55.231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/blog/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pd/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/123.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品 ( 0 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部落格 ( 1 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課程 ( 2 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新聞 ( 3 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title ( 直播標題 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents ( 直播敘述30個字不換行 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic ( 照片 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starttime ( 直播時間 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status ( 直播狀態 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕鬆有趣插花技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個女人都希望自己家美美的，不經意間看到的都是自己精心布置的插花，多美！現代居室的綠化、美化除採用擺、吊、掛等擺設手法外，主要採用插花藝術來美化室內空間，增添生活情趣。</t>
+  </si>
+  <si>
+    <t>2017-12-22:18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-12-21:18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i2.kknews.cc/SIG=1mqgv7c/7so00018nn19747r43n.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新年不止福字和窗花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>插花把你的年味提的更濃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦的興奮勁還沒平復下來，馬上又要過新年了。每年到這個時候，福字和窗花早就貼出來了。但是一點花樣都沒有的裝飾品擺了一年又一年，怎麼對得起自己最愛的春節。今年春節，嘉姐打算給自己的家裡添點「花」樣。挑來挑去，就「插花」這個選擇最討喜了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i1.kknews.cc/SIG=306rd8m/9q00023qn0pron3748.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title ( 標題 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type ( 屬性 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents ( 內文 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link ( 連結 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/14情人節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://pic.sc.chinaz.com/files/pic/pic9/201402/apic137.jpg</t>
+  </si>
+  <si>
+    <t>https://tw.appledaily.com/headline/daily/20180125/37913711</t>
+  </si>
+  <si>
+    <t>聖誕節</t>
+  </si>
+  <si>
+    <t>https://truth.bahamut.com.tw/s01/201712/da99c24a96b658905615ac6d910f0490.PNG</t>
+  </si>
+  <si>
+    <t>http://www.epochtimes.com/b5/17/12/25/n9991897.htm</t>
+  </si>
+  <si>
+    <t>全體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根據聖經的記載，耶穌誕生在猶太的一座小城－－伯利恆。馬利亞，也就是耶穌的母親，因聖靈的感動而懷孕，在夢中天使加百列向她顯現，告訴她，她將要生下神的兒子，他要被稱為耶穌。</t>
+  </si>
+  <si>
+    <t>送禮物一直不是件容易的事，尤其要找到一份能心意相通，讓對方一收到就感到驚喜的禮物更是難，送食物會吃光、保養品會用光、禮券也會花光，到底趁情人節加上新年之際，要送什麼好呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email ( 信箱 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name ( 姓名 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd ( 密碼 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id ( 帳號 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone ( 手機 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smscount ( 剩餘簡訊費 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssss@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,106 +557,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PD1111111112</t>
-  </si>
-  <si>
-    <t>PD1111111113</t>
-  </si>
-  <si>
-    <t>PD1111111114</t>
-  </si>
-  <si>
-    <t>PD1111111115</t>
-  </si>
-  <si>
-    <t>PD1111111116</t>
-  </si>
-  <si>
-    <t>date ( 上架日期 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buycount ( 購買數量 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5a9e8a532eb75b5b11ba379e</t>
-  </si>
-  <si>
-    <t>5a9e8a542eb75b5b11ba37a9</t>
-  </si>
-  <si>
-    <t>head ( 商品 _ID )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
-  </si>
-  <si>
-    <t>5a9e8a532eb75b5b11ba379e,5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
-  </si>
-  <si>
-    <t>5a9e8a532eb75b5b11ba379e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5a9e8a542eb75b5b11ba37a1,5a9e8a542eb75b5b11ba37a3,5a9e8a542eb75b5b11ba37a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5a9e8a542eb75b5b11ba37a9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5a9e90b92eb75b5b11ba48c0</t>
-  </si>
-  <si>
-    <t>5a9e90b92eb75b5b11ba48c2</t>
-  </si>
-  <si>
-    <t>5a9e90b02eb75b5b11ba489c</t>
-  </si>
-  <si>
-    <t>5a9e90b02eb75b5b11ba489e</t>
-  </si>
-  <si>
     <t>杜丹菊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017/12/10:13:55.231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/blog/123.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/pd/123.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/123.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/news/123.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品 ( 0 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部落格 ( 1 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課程 ( 2 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新聞 ( 3 )</t>
+    <t>bonus ( 紅利 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>長壽花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>葉杜丹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>多肉植物</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +613,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,6 +720,48 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -526,7 +785,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +851,27 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,7 +965,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -917,6 +1197,149 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="109" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="58.5">
+      <c r="A2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="97.5">
+      <c r="A3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="1">
+        <v>912345678</v>
+      </c>
+      <c r="F2" s="1">
+        <v>55555</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
@@ -1206,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -1227,7 +1650,7 @@
     <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:12" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1256,21 +1679,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.25">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>52</v>
@@ -1279,10 +1705,10 @@
         <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>53</v>
@@ -1290,156 +1716,174 @@
       <c r="I2" s="1">
         <v>1988</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.5">
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="1">
         <v>4888</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.5">
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1">
         <v>6666</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="33">
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1">
         <v>3588</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="33">
+      <c r="J5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I6" s="1">
         <v>1988</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="19.5">
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I7" s="1">
         <v>1588</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="H9" s="11"/>
     </row>
   </sheetData>
@@ -1466,26 +1910,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60.75">
+    <row r="2" spans="1:2" ht="40.5">
       <c r="A2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="102">
+    </row>
+    <row r="3" spans="1:2" ht="76.5">
       <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1521,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>13</v>
@@ -1529,18 +1973,18 @@
     </row>
     <row r="2" spans="1:2" ht="40.5">
       <c r="A2" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="76.5">
       <c r="A3" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1562,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.5"/>
@@ -1597,53 +2041,53 @@
         <v>25</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="E2" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1651,4 +2095,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="66">
+      <c r="A2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="99">
+      <c r="A3" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>